--- a/REGULAR/DSWD/SEPINO, MARIE CHIARRE.xlsx
+++ b/REGULAR/DSWD/SEPINO, MARIE CHIARRE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2603,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K26" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K27" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2978,12 +2981,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A2" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3149,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.3979999999999997</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3156,7 +3159,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>9.4169999999999998</v>
+        <v>12.167</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3400,15 +3403,17 @@
       <c r="B21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39">
         <v>1</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
@@ -3422,13 +3427,15 @@
         <v>45139</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -3439,25 +3446,33 @@
       <c r="A23" s="40">
         <v>45170</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
+      <c r="G23" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="48">
+        <v>45177</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -3466,14 +3481,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="48">
+        <v>45194</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3491,7 +3510,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3506,6 +3525,24 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3673,7 +3710,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>10.815</v>
+        <v>16.314999999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/DSWD/SEPINO, MARIE CHIARRE.xlsx
+++ b/REGULAR/DSWD/SEPINO, MARIE CHIARRE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BEFBBE-787C-4DCA-BC48-90686330FEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -206,12 +205,15 @@
   </si>
   <si>
     <t>QATAR 11/13/2023 - 01/26/2024</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -443,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +628,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,7 +1080,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,7 +1123,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1187,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1247,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1313,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1376,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1474,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1533,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1598,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1641,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1716,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1902,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1968,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2026,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2092,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2148,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2223,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2266,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2332,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2388,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2486,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2549,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2598,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2610,25 +2615,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K27" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K37" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2640,13 +2645,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2655,14 +2660,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2966,7 +2971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2976,7 +2981,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2984,34 +2989,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A19" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3032,7 +3037,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +3057,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3074,7 +3079,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3082,7 +3087,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3095,7 +3100,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3112,7 +3117,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3156,7 +3161,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.3979999999999997</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3166,12 +3171,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>13.417</v>
+        <v>12.167</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -3193,7 +3198,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44880</v>
       </c>
@@ -3213,7 +3218,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44896</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>53</v>
@@ -3259,7 +3264,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>45</v>
       </c>
@@ -3277,7 +3282,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44927</v>
       </c>
@@ -3297,7 +3302,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44958</v>
       </c>
@@ -3317,7 +3322,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>44986</v>
       </c>
@@ -3337,7 +3342,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>45017</v>
       </c>
@@ -3357,7 +3362,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>45047</v>
       </c>
@@ -3377,7 +3382,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>45078</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>45108</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>45139</v>
       </c>
@@ -3449,7 +3454,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>45170</v>
       </c>
@@ -3475,7 +3480,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -3497,24 +3502,22 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45200</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20">
         <v>60</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v/>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3523,7 +3526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>45231</v>
       </c>
@@ -3541,7 +3544,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45261</v>
       </c>
@@ -3558,6 +3561,216 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="63">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>12.167</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3574,10 +3787,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3600,7 +3813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -3608,21 +3821,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -3635,7 +3848,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3664,7 +3877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -3688,17 +3901,17 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -3722,10 +3935,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>18.814999999999998</v>
+        <v>16.314999999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -3753,7 +3966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3779,7 +3992,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3805,7 +4018,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3831,7 +4044,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3857,7 +4070,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3883,7 +4096,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3909,7 +4122,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3935,7 +4148,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -3955,7 +4168,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -3975,7 +4188,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -3995,7 +4208,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4016,7 +4229,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4037,7 +4250,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4058,7 +4271,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4079,7 +4292,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4100,7 +4313,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4121,7 +4334,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4142,7 +4355,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4163,7 +4376,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4184,7 +4397,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4205,7 +4418,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4226,7 +4439,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4247,7 +4460,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4268,7 +4481,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4289,7 +4502,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4310,7 +4523,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4331,7 +4544,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4352,7 +4565,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4373,7 +4586,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4394,7 +4607,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4415,7 +4628,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4424,7 +4637,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4433,7 +4646,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4442,7 +4655,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4451,7 +4664,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4460,7 +4673,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4469,7 +4682,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4478,7 +4691,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4487,7 +4700,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4496,7 +4709,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4505,7 +4718,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4514,7 +4727,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4523,7 +4736,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4532,7 +4745,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4541,7 +4754,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4550,7 +4763,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4559,7 +4772,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4568,7 +4781,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4577,7 +4790,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4586,7 +4799,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4595,7 +4808,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4604,7 +4817,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4613,7 +4826,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4622,7 +4835,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4631,7 +4844,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4640,7 +4853,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4649,7 +4862,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4658,7 +4871,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4667,7 +4880,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4676,7 +4889,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
